--- a/docs/Rekap Peminatan SMMPTN Barat 2023.xlsx
+++ b/docs/Rekap Peminatan SMMPTN Barat 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\03_SMM\23smm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9342B10B-F613-433E-8B15-6A16CD6E3167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A189AEA-D397-4B6D-B876-D0AF4B9D85CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12216" yWindow="5484" windowWidth="11520" windowHeight="7452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -2274,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
